--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WhiteMale</t>
+          <t>WhiteFemale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,14 +451,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WhiteFemale</t>
+          <t>WhiteMale</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
     </row>

--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WhiteFemale</t>
+          <t>WhiteMale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,14 +451,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WhiteMale</t>
+          <t>WhiteFemale</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>

--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,270 +424,320 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>DemoKey</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>DemoId</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Race</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>WhiteFemale</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>WhiteMale</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>WhiteOther</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>AsianFemale</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Asian</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>BlackMale</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>AsianMale</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Asian</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>TwoOrMoreMale</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Two Or More</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>HispanicMale</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Hispanic</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>HispanicFemale</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Hispanic</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>HispanicOther</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Hispanic</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>TwoOrMoreFemale</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Two Or More</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>BlackFemale</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>AsianOther</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Asian</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>BlackOther</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>TwoOrMoreOther</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Two Or More</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WhiteFemale</t>
+          <t>WhiteMale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WhiteMale</t>
+          <t>WhiteFemale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>

--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WhiteMale</t>
+          <t>WHITEFEMALE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WhiteFemale</t>
+          <t>WHITEMALE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WhiteOther</t>
+          <t>WHITEOTHER</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AsianFemale</t>
+          <t>ASIANFEMALE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BlackMale</t>
+          <t>BLACKMALE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AsianMale</t>
+          <t>ASIANMALE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TwoOrMoreMale</t>
+          <t>TWOORMOREMALE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HispanicMale</t>
+          <t>HISPANICMALE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HispanicFemale</t>
+          <t>HISPANICFEMALE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HispanicOther</t>
+          <t>HISPANICOTHER</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TwoOrMoreFemale</t>
+          <t>TWOORMOREFEMALE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BlackFemale</t>
+          <t>BLACKFEMALE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AsianOther</t>
+          <t>ASIANOTHER</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BlackOther</t>
+          <t>BLACKOTHER</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TwoOrMoreOther</t>
+          <t>TWOORMOREOTHER</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WHITEFEMALE</t>
+          <t>WHITEMALE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WHITEMALE</t>
+          <t>WHITEFEMALE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>

--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WHITEMALE</t>
+          <t>WHITEFEMALE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WHITEFEMALE</t>
+          <t>WHITEMALE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
     </row>

--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,22 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>DemoKey</t>
+          <t>DemographicKey</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>DemoId</t>
+          <t>DemographicId</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GenderAbbr</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Race</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Gender</t>
         </is>
       </c>
     </row>
@@ -449,17 +454,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WHITEMALE</t>
+          <t>WHITEFEMALE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Male</t>
         </is>
       </c>
     </row>
@@ -469,17 +479,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WHITEFEMALE</t>
+          <t>WHITEMALE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Female</t>
         </is>
       </c>
     </row>
@@ -494,12 +509,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>White</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Other</t>
         </is>
       </c>
     </row>
@@ -514,12 +534,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Asian</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Female</t>
         </is>
       </c>
     </row>
@@ -534,12 +559,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Male</t>
         </is>
       </c>
     </row>
@@ -554,12 +584,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Asian</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Male</t>
         </is>
       </c>
     </row>
@@ -574,12 +609,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Two Or More</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Male</t>
         </is>
       </c>
     </row>
@@ -594,12 +634,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Hispanic</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Male</t>
         </is>
       </c>
     </row>
@@ -614,12 +659,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Hispanic</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Female</t>
         </is>
       </c>
     </row>
@@ -634,12 +684,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Hispanic</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Other</t>
         </is>
       </c>
     </row>
@@ -654,12 +709,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Two Or More</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Female</t>
         </is>
       </c>
     </row>
@@ -674,12 +734,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Female</t>
         </is>
       </c>
     </row>
@@ -694,12 +759,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Asian</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Other</t>
         </is>
       </c>
     </row>
@@ -714,12 +784,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Black</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Other</t>
         </is>
       </c>
     </row>
@@ -734,12 +809,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Two Or More</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Other</t>
         </is>
       </c>
     </row>

--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -454,17 +454,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WHITEFEMALE</t>
+          <t>WHITEMALE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -479,17 +479,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WHITEMALE</t>
+          <t>WHITEFEMALE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/demographic.xlsx
+++ b/data/demographic.xlsx
@@ -454,17 +454,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WHITEMALE</t>
+          <t>WHITEFEMALE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -479,17 +479,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WHITEFEMALE</t>
+          <t>WHITEMALE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
